--- a/Section 4/32. Using Named Ranges to Make Formulas More Readable/Naming-ranges-Unsolved.xlsx
+++ b/Section 4/32. Using Named Ranges to Make Formulas More Readable/Naming-ranges-Unsolved.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NewPC\Desktop\Courses\Video creating\The Complete Financial Analyst Course\Resources\3. Useful Tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data_science\udemy_economics\Section 4\32. Using Named Ranges to Make Formulas More Readable\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59918B46-CD41-4DAB-A6DC-264DEB2B8903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="28680" yWindow="270" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Naming Ranges" sheetId="2" r:id="rId1"/>
@@ -18,17 +19,101 @@
     <definedName name="Sales">#REF!</definedName>
     <definedName name="Sales_">#REF!</definedName>
     <definedName name="Sales1">#REF!</definedName>
-    <definedName name="Sales12">#REF!</definedName>
-    <definedName name="Sales13">#REF!</definedName>
+    <definedName name="Sales12">'Naming Ranges'!$C$4:$C$7</definedName>
+    <definedName name="Sales13">'Naming Ranges'!$D$4:$D$7</definedName>
     <definedName name="try">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization>
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code xml:space="preserve">xl(%P2%)
+</code>
+    </pythonScript>
+    <pythonScript>
+      <code>xl(%P2%).describe()</code>
+    </pythonScript>
+    <pythonScript>
+      <code xml:space="preserve">    </code>
+    </pythonScript>
+    <pythonScript>
+      <code>x = 10
+xl(%P2%)+x</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,7 +151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -180,6 +265,62 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>14</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -478,26 +619,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="25.28515625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -508,7 +651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -518,8 +661,12 @@
       <c r="D4" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="G4" s="2" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="G4" ca="1">_xlfn._xlws.PY(0,1,B4:D7)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -530,7 +677,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -540,8 +687,20 @@
       <c r="D6" s="2">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="G6:I14" ca="1">_xlfn._xlws.PY(1,0,G4)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H6" s="2" t="e" vm="1">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I6" s="2" t="e" vm="1">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -551,13 +710,150 @@
       <c r="D7" s="2">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="2" t="e" vm="1">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H7" s="2" t="e" vm="1">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I7" s="2" t="e" vm="1">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="6">
+        <f>SUM(Sales12)</f>
+        <v>28.4</v>
+      </c>
+      <c r="D8" s="6">
+        <f>SUM(Sales13)</f>
+        <v>31.1</v>
+      </c>
+      <c r="G8" s="2" t="e" vm="1">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H8" s="2" t="e" vm="1">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I8" s="2" t="e" vm="1">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G9" s="2" t="e" vm="1">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H9" s="2" t="e" vm="1">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I9" s="2" t="e" vm="1">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G10" s="2" t="e" vm="1">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H10" s="2" t="e" vm="1">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I10" s="2" t="e" vm="1">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" cm="1">
+        <f t="array" ref="C11:C14">Sales12+Sales13</f>
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="D11" ca="1">_xlfn._xlws.PY(2,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G11" s="2" t="e" vm="1">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H11" s="2" t="e" vm="1">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I11" s="2" t="e" vm="1">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="2">
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="G12" s="2" t="e" vm="1">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H12" s="2" t="e" vm="1">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I12" s="2" t="e" vm="1">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="G13" s="2" t="e" vm="1">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H13" s="2" t="e" vm="1">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I13" s="2" t="e" vm="1">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="2">
+        <v>21.4</v>
+      </c>
+      <c r="G14" s="2" t="e" vm="1">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H14" s="2" t="e" vm="1">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I14" s="2" t="e" vm="1">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="2" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="G20" ca="1">_xlfn._xlws.PY(3,1,C4)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
